--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/Totals_02_01.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/Totals_02_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C958DFB-729B-4E23-8BD9-0048814A04E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E1995C-1240-4DC3-AD4E-CF38F28F7455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="257">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +785,34 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total Batteries</t>
+  </si>
+  <si>
+    <t>Total Grid Tie Inverters</t>
+  </si>
+  <si>
+    <t>Total Landscape lighting</t>
+  </si>
+  <si>
+    <t>Total Lightbulbs</t>
+  </si>
+  <si>
+    <t>Total Solar panels</t>
+  </si>
+  <si>
+    <t>Total Wind harvester</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                    </t>
   </si>
 </sst>
 </file>
@@ -866,7 +887,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -4324,14 +4345,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="2"/>
         <item x="1"/>
@@ -4342,10 +4363,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="53">
-        <item x="38"/>
+        <item n="                                                                                                                                                    " x="38"/>
         <item x="6"/>
         <item x="3"/>
         <item x="30"/>
@@ -4400,15 +4421,15 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="4"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="59">
+  <rowItems count="65">
     <i>
       <x/>
     </i>
@@ -4436,6 +4457,9 @@
     <i r="1">
       <x v="20"/>
     </i>
+    <i t="default">
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -4457,6 +4481,9 @@
     <i r="1">
       <x v="51"/>
     </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -4471,6 +4498,9 @@
     </i>
     <i r="1">
       <x v="45"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -4510,6 +4540,9 @@
     </i>
     <i r="1">
       <x v="39"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4559,6 +4592,9 @@
     <i r="1">
       <x v="41"/>
     </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -4583,6 +4619,9 @@
     <i r="1">
       <x v="27"/>
     </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4599,7 +4638,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4625,7 +4664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4921,37 +4960,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529B311F-2408-4E23-9EAC-3B801B640F4A}">
-  <dimension ref="A3:B62"/>
+  <dimension ref="A3:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="7">
-        <v>1219092.75</v>
-      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="B5" s="7">
         <v>1148.3</v>
@@ -5015,401 +5052,439 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1219092.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="7">
-        <v>3586923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1172788</v>
-      </c>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7">
-        <v>1100075</v>
+        <v>1172788</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B16" s="7">
-        <v>116476</v>
+        <v>1100075</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7">
-        <v>226722</v>
+        <v>116476</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B18" s="7">
-        <v>396530</v>
+        <v>226722</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>396530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7">
         <v>574332</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3586923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="7">
-        <v>8961.7000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="7">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3308.32</v>
-      </c>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7">
-        <v>1639.9800000000002</v>
+        <v>712</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B24" s="7">
-        <v>3301.4</v>
+        <v>3308.32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>211</v>
+      <c r="A25" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="7">
-        <v>11108.97</v>
+        <v>1639.9800000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B26" s="7">
-        <v>68.12</v>
+        <v>3301.4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>45</v>
+      <c r="A27" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="B27" s="7">
-        <v>958.25</v>
+        <v>8961.7000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="7">
-        <v>215.15000000000003</v>
-      </c>
+      <c r="A28" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="B29" s="7">
-        <v>639</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7">
-        <v>1563.6000000000001</v>
+        <v>958.25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="B31" s="7">
-        <v>576.65</v>
+        <v>215.15000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="B32" s="7">
-        <v>1131.6000000000001</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B33" s="7">
-        <v>2209</v>
+        <v>1563.6000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B34" s="7">
-        <v>2325</v>
+        <v>576.65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7">
-        <v>608</v>
+        <v>1131.6000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B36" s="7">
-        <v>749</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B37" s="7">
-        <v>65.599999999999994</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>209</v>
+      <c r="A38" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B38" s="7">
-        <v>295106.04000000004</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B39" s="7">
-        <v>20525</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="B40" s="7">
-        <v>28296</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>149</v>
+      <c r="A41" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B41" s="7">
-        <v>10166</v>
+        <v>11108.97</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="7">
-        <v>8407.5</v>
-      </c>
+      <c r="A42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B43" s="7">
-        <v>18480</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B44" s="7">
-        <v>6347.25</v>
+        <v>28296</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B45" s="7">
-        <v>12744</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="B46" s="7">
-        <v>5767.5</v>
+        <v>8407.5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B47" s="7">
-        <v>49140.5</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B48" s="7">
-        <v>43833.5</v>
+        <v>6347.25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="B49" s="7">
-        <v>39537.75</v>
+        <v>12744</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="B50" s="7">
-        <v>21652.14</v>
+        <v>5767.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B51" s="7">
-        <v>25568</v>
+        <v>49140.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B52" s="7">
-        <v>3078.4500000000003</v>
+        <v>43833.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B53" s="7">
-        <v>1562.45</v>
+        <v>39537.75</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>210</v>
+      <c r="A54" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B54" s="7">
-        <v>307043</v>
+        <v>21652.14</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="B55" s="7">
-        <v>26329</v>
+        <v>25568</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B56" s="7">
-        <v>101640</v>
+        <v>3078.4500000000003</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B57" s="7">
-        <v>39068</v>
+        <v>1562.45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>133</v>
+      <c r="A58" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B58" s="7">
-        <v>45139</v>
+        <v>295106.04000000004</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="7">
-        <v>43392</v>
-      </c>
+      <c r="A59" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="B60" s="7">
-        <v>47476</v>
+        <v>26329</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7">
+        <v>101640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="7">
+        <v>39068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="7">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="7">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="7">
+        <v>47476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B66" s="7">
         <v>3999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B62" s="7">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="7">
+        <v>307043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="7">
         <v>5428235.4600000009</v>
       </c>
     </row>
@@ -5426,7 +5501,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
